--- a/GameDesign/Feature.xlsx
+++ b/GameDesign/Feature.xlsx
@@ -1067,7 +1067,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
